--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf7</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.29395</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>4.364867861266666</v>
+        <v>4.499805510783333</v>
       </c>
       <c r="R2">
-        <v>39.2838107514</v>
+        <v>40.49824959705</v>
       </c>
       <c r="S2">
-        <v>0.3085128263790582</v>
+        <v>0.1112445993427989</v>
       </c>
       <c r="T2">
-        <v>0.3085128263790582</v>
+        <v>0.1112445993427989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.29395</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
         <v>3.942558192188889</v>
@@ -638,10 +638,10 @@
         <v>35.4830237297</v>
       </c>
       <c r="S3">
-        <v>0.2786635952555802</v>
+        <v>0.0974682806678399</v>
       </c>
       <c r="T3">
-        <v>0.2786635952555802</v>
+        <v>0.0974682806678399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.29395</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>1.975314735644444</v>
+        <v>2.312720964538888</v>
       </c>
       <c r="R4">
-        <v>17.7778326208</v>
+        <v>20.81448868085</v>
       </c>
       <c r="S4">
-        <v>0.13961704029799</v>
+        <v>0.05717529712679356</v>
       </c>
       <c r="T4">
-        <v>0.13961704029799</v>
+        <v>0.05717529712679358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.29395</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>1.573381615244444</v>
+        <v>1.8838802817</v>
       </c>
       <c r="R5">
-        <v>14.1604345372</v>
+        <v>16.9549225353</v>
       </c>
       <c r="S5">
-        <v>0.1112080421493099</v>
+        <v>0.04657345892956897</v>
       </c>
       <c r="T5">
-        <v>0.1112080421493099</v>
+        <v>0.04657345892956897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.29395</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,958 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>2.291969629611111</v>
+        <v>1.980648752344444</v>
       </c>
       <c r="R6">
-        <v>20.6277266665</v>
+        <v>17.8258387711</v>
       </c>
       <c r="S6">
-        <v>0.1619984959180618</v>
+        <v>0.0489657778242544</v>
       </c>
       <c r="T6">
-        <v>0.1619984959180618</v>
+        <v>0.0489657778242544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.204631</v>
+      </c>
+      <c r="I7">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J7">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>45.924193</v>
+      </c>
+      <c r="N7">
+        <v>137.772579</v>
+      </c>
+      <c r="O7">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="P7">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="Q7">
+        <v>3.132504512594334</v>
+      </c>
+      <c r="R7">
+        <v>28.192540613349</v>
+      </c>
+      <c r="S7">
+        <v>0.0774420602419333</v>
+      </c>
+      <c r="T7">
+        <v>0.0774420602419333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.204631</v>
+      </c>
+      <c r="I8">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J8">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N8">
+        <v>120.711086</v>
+      </c>
+      <c r="O8">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="P8">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="Q8">
+        <v>2.744581137696222</v>
+      </c>
+      <c r="R8">
+        <v>24.701230239266</v>
+      </c>
+      <c r="S8">
+        <v>0.0678517834371177</v>
+      </c>
+      <c r="T8">
+        <v>0.0678517834371177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.204631</v>
+      </c>
+      <c r="I9">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J9">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.60320766666667</v>
+      </c>
+      <c r="N9">
+        <v>70.809623</v>
+      </c>
+      <c r="O9">
+        <v>0.1581930283351338</v>
+      </c>
+      <c r="P9">
+        <v>0.1581930283351339</v>
+      </c>
+      <c r="Q9">
+        <v>1.609982662679222</v>
+      </c>
+      <c r="R9">
+        <v>14.489843964113</v>
+      </c>
+      <c r="S9">
+        <v>0.03980213718779688</v>
+      </c>
+      <c r="T9">
+        <v>0.0398021371877969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.204631</v>
+      </c>
+      <c r="I10">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J10">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.226538</v>
+      </c>
+      <c r="N10">
+        <v>57.679614</v>
+      </c>
+      <c r="O10">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="P10">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="Q10">
+        <v>1.311448565826</v>
+      </c>
+      <c r="R10">
+        <v>11.803037092434</v>
+      </c>
+      <c r="S10">
+        <v>0.03242175020995621</v>
+      </c>
+      <c r="T10">
+        <v>0.03242175020995621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.204631</v>
+      </c>
+      <c r="I11">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J11">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.21413933333333</v>
+      </c>
+      <c r="N11">
+        <v>60.64241799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="P11">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="Q11">
+        <v>1.378813181973111</v>
+      </c>
+      <c r="R11">
+        <v>12.409318637758</v>
+      </c>
+      <c r="S11">
+        <v>0.03408714435092704</v>
+      </c>
+      <c r="T11">
+        <v>0.03408714435092704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.035101</v>
+      </c>
+      <c r="H12">
+        <v>0.105303</v>
+      </c>
+      <c r="I12">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J12">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>45.924193</v>
+      </c>
+      <c r="N12">
+        <v>137.772579</v>
+      </c>
+      <c r="O12">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="P12">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="Q12">
+        <v>1.611985098493</v>
+      </c>
+      <c r="R12">
+        <v>14.507865886437</v>
+      </c>
+      <c r="S12">
+        <v>0.03985164158732696</v>
+      </c>
+      <c r="T12">
+        <v>0.03985164158732694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.035101</v>
+      </c>
+      <c r="H13">
+        <v>0.105303</v>
+      </c>
+      <c r="I13">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J13">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N13">
+        <v>120.711086</v>
+      </c>
+      <c r="O13">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="P13">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="Q13">
+        <v>1.412359943228667</v>
+      </c>
+      <c r="R13">
+        <v>12.711239489058</v>
+      </c>
+      <c r="S13">
+        <v>0.03491649042070266</v>
+      </c>
+      <c r="T13">
+        <v>0.03491649042070265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.035101</v>
+      </c>
+      <c r="H14">
+        <v>0.105303</v>
+      </c>
+      <c r="I14">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J14">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.60320766666667</v>
+      </c>
+      <c r="N14">
+        <v>70.809623</v>
+      </c>
+      <c r="O14">
+        <v>0.1581930283351338</v>
+      </c>
+      <c r="P14">
+        <v>0.1581930283351339</v>
+      </c>
+      <c r="Q14">
+        <v>0.8284961923076667</v>
+      </c>
+      <c r="R14">
+        <v>7.456465730769</v>
+      </c>
+      <c r="S14">
+        <v>0.02048215789536569</v>
+      </c>
+      <c r="T14">
+        <v>0.02048215789536569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.035101</v>
+      </c>
+      <c r="H15">
+        <v>0.105303</v>
+      </c>
+      <c r="I15">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J15">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>19.226538</v>
+      </c>
+      <c r="N15">
+        <v>57.679614</v>
+      </c>
+      <c r="O15">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="P15">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="Q15">
+        <v>0.6748707103380001</v>
+      </c>
+      <c r="R15">
+        <v>6.073836393042</v>
+      </c>
+      <c r="S15">
+        <v>0.01668421481769145</v>
+      </c>
+      <c r="T15">
+        <v>0.01668421481769145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.035101</v>
+      </c>
+      <c r="H16">
+        <v>0.105303</v>
+      </c>
+      <c r="I16">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J16">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.21413933333333</v>
+      </c>
+      <c r="N16">
+        <v>60.64241799999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="P16">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="Q16">
+        <v>0.7095365047393333</v>
+      </c>
+      <c r="R16">
+        <v>6.385828542653999</v>
+      </c>
+      <c r="S16">
+        <v>0.01754122572623732</v>
+      </c>
+      <c r="T16">
+        <v>0.01754122572623732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.209419</v>
+      </c>
+      <c r="I17">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J17">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>45.924193</v>
+      </c>
+      <c r="N17">
+        <v>137.772579</v>
+      </c>
+      <c r="O17">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="P17">
+        <v>0.307792367338991</v>
+      </c>
+      <c r="Q17">
+        <v>3.205799524622333</v>
+      </c>
+      <c r="R17">
+        <v>28.852195721601</v>
+      </c>
+      <c r="S17">
+        <v>0.07925406616693184</v>
+      </c>
+      <c r="T17">
+        <v>0.07925406616693183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.209419</v>
+      </c>
+      <c r="I18">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J18">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N18">
+        <v>120.711086</v>
+      </c>
+      <c r="O18">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="P18">
+        <v>0.2696759485354523</v>
+      </c>
+      <c r="Q18">
+        <v>2.808799435448222</v>
+      </c>
+      <c r="R18">
+        <v>25.279194919034</v>
+      </c>
+      <c r="S18">
+        <v>0.06943939400979203</v>
+      </c>
+      <c r="T18">
+        <v>0.06943939400979202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.209419</v>
+      </c>
+      <c r="I19">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J19">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.60320766666667</v>
+      </c>
+      <c r="N19">
+        <v>70.809623</v>
+      </c>
+      <c r="O19">
+        <v>0.1581930283351338</v>
+      </c>
+      <c r="P19">
+        <v>0.1581930283351339</v>
+      </c>
+      <c r="Q19">
+        <v>1.647653382115222</v>
+      </c>
+      <c r="R19">
+        <v>14.828880439037</v>
+      </c>
+      <c r="S19">
+        <v>0.04073343612517769</v>
+      </c>
+      <c r="T19">
+        <v>0.04073343612517769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.209419</v>
+      </c>
+      <c r="I20">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J20">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.226538</v>
+      </c>
+      <c r="N20">
+        <v>57.679614</v>
+      </c>
+      <c r="O20">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="P20">
+        <v>0.1288597852280838</v>
+      </c>
+      <c r="Q20">
+        <v>1.342134120474</v>
+      </c>
+      <c r="R20">
+        <v>12.079207084266</v>
+      </c>
+      <c r="S20">
+        <v>0.03318036127086717</v>
+      </c>
+      <c r="T20">
+        <v>0.03318036127086717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.209419</v>
+      </c>
+      <c r="I21">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J21">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.21413933333333</v>
+      </c>
+      <c r="N21">
+        <v>60.64241799999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="P21">
+        <v>0.1354788705623391</v>
+      </c>
+      <c r="Q21">
+        <v>1.411074948349111</v>
+      </c>
+      <c r="R21">
+        <v>12.699674535142</v>
+      </c>
+      <c r="S21">
+        <v>0.03488472266092034</v>
+      </c>
+      <c r="T21">
+        <v>0.03488472266092033</v>
       </c>
     </row>
   </sheetData>
